--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Serie</t>
   </si>
@@ -479,6 +479,72 @@
   </si>
   <si>
     <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -836,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4269,6 +4335,512 @@
         <v>1261</v>
       </c>
     </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150">
+        <v>3412</v>
+      </c>
+      <c r="C150">
+        <v>623</v>
+      </c>
+      <c r="D150">
+        <v>505</v>
+      </c>
+      <c r="E150">
+        <v>647</v>
+      </c>
+      <c r="F150">
+        <v>712</v>
+      </c>
+      <c r="G150">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151">
+        <v>3745</v>
+      </c>
+      <c r="C151">
+        <v>902</v>
+      </c>
+      <c r="D151">
+        <v>615</v>
+      </c>
+      <c r="E151">
+        <v>880</v>
+      </c>
+      <c r="F151">
+        <v>546</v>
+      </c>
+      <c r="G151">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152">
+        <v>4766</v>
+      </c>
+      <c r="C152">
+        <v>1078</v>
+      </c>
+      <c r="D152">
+        <v>813</v>
+      </c>
+      <c r="E152">
+        <v>517</v>
+      </c>
+      <c r="F152">
+        <v>1158</v>
+      </c>
+      <c r="G152">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153">
+        <v>4395</v>
+      </c>
+      <c r="C153">
+        <v>541</v>
+      </c>
+      <c r="D153">
+        <v>637</v>
+      </c>
+      <c r="E153">
+        <v>1283</v>
+      </c>
+      <c r="F153">
+        <v>983</v>
+      </c>
+      <c r="G153">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154">
+        <v>3835</v>
+      </c>
+      <c r="C154">
+        <v>455</v>
+      </c>
+      <c r="D154">
+        <v>476</v>
+      </c>
+      <c r="E154">
+        <v>1012</v>
+      </c>
+      <c r="F154">
+        <v>1031</v>
+      </c>
+      <c r="G154">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155">
+        <v>6171</v>
+      </c>
+      <c r="C155">
+        <v>884</v>
+      </c>
+      <c r="D155">
+        <v>952</v>
+      </c>
+      <c r="E155">
+        <v>1556</v>
+      </c>
+      <c r="F155">
+        <v>1356</v>
+      </c>
+      <c r="G155">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156">
+        <v>4590</v>
+      </c>
+      <c r="C156">
+        <v>502</v>
+      </c>
+      <c r="D156">
+        <v>761</v>
+      </c>
+      <c r="E156">
+        <v>869</v>
+      </c>
+      <c r="F156">
+        <v>1344</v>
+      </c>
+      <c r="G156">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157">
+        <v>3723</v>
+      </c>
+      <c r="C157">
+        <v>581</v>
+      </c>
+      <c r="D157">
+        <v>508</v>
+      </c>
+      <c r="E157">
+        <v>892</v>
+      </c>
+      <c r="F157">
+        <v>903</v>
+      </c>
+      <c r="G157">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158">
+        <v>5438</v>
+      </c>
+      <c r="C158">
+        <v>634</v>
+      </c>
+      <c r="D158">
+        <v>775</v>
+      </c>
+      <c r="E158">
+        <v>1335</v>
+      </c>
+      <c r="F158">
+        <v>1341</v>
+      </c>
+      <c r="G158">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159">
+        <v>3907</v>
+      </c>
+      <c r="C159">
+        <v>530</v>
+      </c>
+      <c r="D159">
+        <v>614</v>
+      </c>
+      <c r="E159">
+        <v>685</v>
+      </c>
+      <c r="F159">
+        <v>1107</v>
+      </c>
+      <c r="G159">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160">
+        <v>4984</v>
+      </c>
+      <c r="C160">
+        <v>1505</v>
+      </c>
+      <c r="D160">
+        <v>645</v>
+      </c>
+      <c r="E160">
+        <v>1259</v>
+      </c>
+      <c r="F160">
+        <v>792</v>
+      </c>
+      <c r="G160">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161">
+        <v>4399</v>
+      </c>
+      <c r="C161">
+        <v>300</v>
+      </c>
+      <c r="D161">
+        <v>518</v>
+      </c>
+      <c r="E161">
+        <v>1540</v>
+      </c>
+      <c r="F161">
+        <v>1028</v>
+      </c>
+      <c r="G161">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162">
+        <v>3208</v>
+      </c>
+      <c r="C162">
+        <v>614</v>
+      </c>
+      <c r="D162">
+        <v>953</v>
+      </c>
+      <c r="E162">
+        <v>510</v>
+      </c>
+      <c r="F162">
+        <v>513</v>
+      </c>
+      <c r="G162">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163">
+        <v>5374</v>
+      </c>
+      <c r="C163">
+        <v>542</v>
+      </c>
+      <c r="D163">
+        <v>622</v>
+      </c>
+      <c r="E163">
+        <v>1441</v>
+      </c>
+      <c r="F163">
+        <v>1448</v>
+      </c>
+      <c r="G163">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164">
+        <v>4170</v>
+      </c>
+      <c r="C164">
+        <v>657</v>
+      </c>
+      <c r="D164">
+        <v>697</v>
+      </c>
+      <c r="E164">
+        <v>615</v>
+      </c>
+      <c r="F164">
+        <v>1072</v>
+      </c>
+      <c r="G164">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165">
+        <v>3924</v>
+      </c>
+      <c r="C165">
+        <v>646</v>
+      </c>
+      <c r="D165">
+        <v>760</v>
+      </c>
+      <c r="E165">
+        <v>1012</v>
+      </c>
+      <c r="F165">
+        <v>776</v>
+      </c>
+      <c r="G165">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166">
+        <v>3930</v>
+      </c>
+      <c r="C166">
+        <v>581</v>
+      </c>
+      <c r="D166">
+        <v>836</v>
+      </c>
+      <c r="E166">
+        <v>754</v>
+      </c>
+      <c r="F166">
+        <v>976</v>
+      </c>
+      <c r="G166">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167">
+        <v>3051</v>
+      </c>
+      <c r="C167">
+        <v>321</v>
+      </c>
+      <c r="D167">
+        <v>481</v>
+      </c>
+      <c r="E167">
+        <v>407</v>
+      </c>
+      <c r="F167">
+        <v>1039</v>
+      </c>
+      <c r="G167">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168">
+        <v>4117</v>
+      </c>
+      <c r="C168">
+        <v>411</v>
+      </c>
+      <c r="D168">
+        <v>825</v>
+      </c>
+      <c r="E168">
+        <v>598</v>
+      </c>
+      <c r="F168">
+        <v>1359</v>
+      </c>
+      <c r="G168">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169">
+        <v>6431</v>
+      </c>
+      <c r="C169">
+        <v>524</v>
+      </c>
+      <c r="D169">
+        <v>1147</v>
+      </c>
+      <c r="E169">
+        <v>1404</v>
+      </c>
+      <c r="F169">
+        <v>2222</v>
+      </c>
+      <c r="G169">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170">
+        <v>6203</v>
+      </c>
+      <c r="C170">
+        <v>884</v>
+      </c>
+      <c r="D170">
+        <v>989</v>
+      </c>
+      <c r="E170">
+        <v>995</v>
+      </c>
+      <c r="F170">
+        <v>1879</v>
+      </c>
+      <c r="G170">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171">
+        <v>5020</v>
+      </c>
+      <c r="C171">
+        <v>187</v>
+      </c>
+      <c r="D171">
+        <v>492</v>
+      </c>
+      <c r="E171">
+        <v>920</v>
+      </c>
+      <c r="F171">
+        <v>1959</v>
+      </c>
+      <c r="G171">
+        <v>1463</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>Serie</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -902,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4841,6 +4847,52 @@
         <v>1463</v>
       </c>
     </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172">
+        <v>1252</v>
+      </c>
+      <c r="C172">
+        <v>185</v>
+      </c>
+      <c r="D172">
+        <v>316</v>
+      </c>
+      <c r="E172">
+        <v>409</v>
+      </c>
+      <c r="F172">
+        <v>148</v>
+      </c>
+      <c r="G172">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173">
+        <v>5389</v>
+      </c>
+      <c r="C173">
+        <v>442</v>
+      </c>
+      <c r="D173">
+        <v>573</v>
+      </c>
+      <c r="E173">
+        <v>1532</v>
+      </c>
+      <c r="F173">
+        <v>1366</v>
+      </c>
+      <c r="G173">
+        <v>1476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Serie</t>
   </si>
@@ -551,6 +551,15 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
   </si>
 </sst>
 </file>
@@ -908,7 +917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4893,6 +4902,75 @@
         <v>1476</v>
       </c>
     </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174">
+        <v>5120</v>
+      </c>
+      <c r="C174">
+        <v>629</v>
+      </c>
+      <c r="D174">
+        <v>695</v>
+      </c>
+      <c r="E174">
+        <v>1115</v>
+      </c>
+      <c r="F174">
+        <v>1281</v>
+      </c>
+      <c r="G174">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175">
+        <v>5869</v>
+      </c>
+      <c r="C175">
+        <v>913</v>
+      </c>
+      <c r="D175">
+        <v>856</v>
+      </c>
+      <c r="E175">
+        <v>1603</v>
+      </c>
+      <c r="F175">
+        <v>1207</v>
+      </c>
+      <c r="G175">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176">
+        <v>4392</v>
+      </c>
+      <c r="C176">
+        <v>602</v>
+      </c>
+      <c r="D176">
+        <v>697</v>
+      </c>
+      <c r="E176">
+        <v>1249</v>
+      </c>
+      <c r="F176">
+        <v>906</v>
+      </c>
+      <c r="G176">
+        <v>938</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Serie</t>
   </si>
@@ -560,6 +560,45 @@
   </si>
   <si>
     <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -917,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4971,6 +5010,305 @@
         <v>938</v>
       </c>
     </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177">
+        <v>3577</v>
+      </c>
+      <c r="C177">
+        <v>477</v>
+      </c>
+      <c r="D177">
+        <v>411</v>
+      </c>
+      <c r="E177">
+        <v>1116</v>
+      </c>
+      <c r="F177">
+        <v>777</v>
+      </c>
+      <c r="G177">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178">
+        <v>3993</v>
+      </c>
+      <c r="C178">
+        <v>399</v>
+      </c>
+      <c r="D178">
+        <v>569</v>
+      </c>
+      <c r="E178">
+        <v>1568</v>
+      </c>
+      <c r="F178">
+        <v>746</v>
+      </c>
+      <c r="G178">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179">
+        <v>6516</v>
+      </c>
+      <c r="C179">
+        <v>1168</v>
+      </c>
+      <c r="D179">
+        <v>1417</v>
+      </c>
+      <c r="E179">
+        <v>1715</v>
+      </c>
+      <c r="F179">
+        <v>1208</v>
+      </c>
+      <c r="G179">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180">
+        <v>3127</v>
+      </c>
+      <c r="C180">
+        <v>265</v>
+      </c>
+      <c r="D180">
+        <v>386</v>
+      </c>
+      <c r="E180">
+        <v>892</v>
+      </c>
+      <c r="F180">
+        <v>801</v>
+      </c>
+      <c r="G180">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181">
+        <v>3654</v>
+      </c>
+      <c r="C181">
+        <v>449</v>
+      </c>
+      <c r="D181">
+        <v>719</v>
+      </c>
+      <c r="E181">
+        <v>598</v>
+      </c>
+      <c r="F181">
+        <v>903</v>
+      </c>
+      <c r="G181">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182">
+        <v>3588</v>
+      </c>
+      <c r="C182">
+        <v>409</v>
+      </c>
+      <c r="D182">
+        <v>598</v>
+      </c>
+      <c r="E182">
+        <v>1073</v>
+      </c>
+      <c r="F182">
+        <v>619</v>
+      </c>
+      <c r="G182">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183">
+        <v>4743</v>
+      </c>
+      <c r="C183">
+        <v>731</v>
+      </c>
+      <c r="D183">
+        <v>408</v>
+      </c>
+      <c r="E183">
+        <v>791</v>
+      </c>
+      <c r="F183">
+        <v>1289</v>
+      </c>
+      <c r="G183">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184">
+        <v>5948</v>
+      </c>
+      <c r="C184">
+        <v>1130</v>
+      </c>
+      <c r="D184">
+        <v>698</v>
+      </c>
+      <c r="E184">
+        <v>1230</v>
+      </c>
+      <c r="F184">
+        <v>1316</v>
+      </c>
+      <c r="G184">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185">
+        <v>5067</v>
+      </c>
+      <c r="C185">
+        <v>837</v>
+      </c>
+      <c r="D185">
+        <v>837</v>
+      </c>
+      <c r="E185">
+        <v>1080</v>
+      </c>
+      <c r="F185">
+        <v>1053</v>
+      </c>
+      <c r="G185">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186">
+        <v>4780</v>
+      </c>
+      <c r="C186">
+        <v>477</v>
+      </c>
+      <c r="D186">
+        <v>674</v>
+      </c>
+      <c r="E186">
+        <v>1386</v>
+      </c>
+      <c r="F186">
+        <v>1020</v>
+      </c>
+      <c r="G186">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187">
+        <v>5834</v>
+      </c>
+      <c r="C187">
+        <v>505</v>
+      </c>
+      <c r="D187">
+        <v>657</v>
+      </c>
+      <c r="E187">
+        <v>539</v>
+      </c>
+      <c r="F187">
+        <v>1777</v>
+      </c>
+      <c r="G187">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188">
+        <v>4928</v>
+      </c>
+      <c r="C188">
+        <v>649</v>
+      </c>
+      <c r="D188">
+        <v>548</v>
+      </c>
+      <c r="E188">
+        <v>1261</v>
+      </c>
+      <c r="F188">
+        <v>1031</v>
+      </c>
+      <c r="G188">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189">
+        <v>5153</v>
+      </c>
+      <c r="C189">
+        <v>1230</v>
+      </c>
+      <c r="D189">
+        <v>1034</v>
+      </c>
+      <c r="E189">
+        <v>710</v>
+      </c>
+      <c r="F189">
+        <v>1136</v>
+      </c>
+      <c r="G189">
+        <v>1043</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Serie</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -956,7 +962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5309,6 +5315,52 @@
         <v>1043</v>
       </c>
     </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190">
+        <v>4241</v>
+      </c>
+      <c r="C190">
+        <v>567</v>
+      </c>
+      <c r="D190">
+        <v>740</v>
+      </c>
+      <c r="E190">
+        <v>628</v>
+      </c>
+      <c r="F190">
+        <v>1235</v>
+      </c>
+      <c r="G190">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191">
+        <v>4815</v>
+      </c>
+      <c r="C191">
+        <v>739</v>
+      </c>
+      <c r="D191">
+        <v>788</v>
+      </c>
+      <c r="E191">
+        <v>949</v>
+      </c>
+      <c r="F191">
+        <v>1062</v>
+      </c>
+      <c r="G191">
+        <v>1277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Serie</t>
   </si>
@@ -605,6 +605,15 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -962,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5361,6 +5370,75 @@
         <v>1277</v>
       </c>
     </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192">
+        <v>4131</v>
+      </c>
+      <c r="C192">
+        <v>549</v>
+      </c>
+      <c r="D192">
+        <v>501</v>
+      </c>
+      <c r="E192">
+        <v>933</v>
+      </c>
+      <c r="F192">
+        <v>1013</v>
+      </c>
+      <c r="G192">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193">
+        <v>5855</v>
+      </c>
+      <c r="C193">
+        <v>1130</v>
+      </c>
+      <c r="D193">
+        <v>764</v>
+      </c>
+      <c r="E193">
+        <v>1186</v>
+      </c>
+      <c r="F193">
+        <v>1347</v>
+      </c>
+      <c r="G193">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194">
+        <v>4088</v>
+      </c>
+      <c r="C194">
+        <v>565</v>
+      </c>
+      <c r="D194">
+        <v>723</v>
+      </c>
+      <c r="E194">
+        <v>1176</v>
+      </c>
+      <c r="F194">
+        <v>778</v>
+      </c>
+      <c r="G194">
+        <v>846</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -614,6 +614,45 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5439,6 +5478,305 @@
         <v>846</v>
       </c>
     </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195">
+        <v>3337</v>
+      </c>
+      <c r="C195">
+        <v>588</v>
+      </c>
+      <c r="D195">
+        <v>621</v>
+      </c>
+      <c r="E195">
+        <v>704</v>
+      </c>
+      <c r="F195">
+        <v>687</v>
+      </c>
+      <c r="G195">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196">
+        <v>6605</v>
+      </c>
+      <c r="C196">
+        <v>1224</v>
+      </c>
+      <c r="D196">
+        <v>872</v>
+      </c>
+      <c r="E196">
+        <v>1027</v>
+      </c>
+      <c r="F196">
+        <v>1901</v>
+      </c>
+      <c r="G196">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197">
+        <v>5332</v>
+      </c>
+      <c r="C197">
+        <v>883</v>
+      </c>
+      <c r="D197">
+        <v>909</v>
+      </c>
+      <c r="E197">
+        <v>1219</v>
+      </c>
+      <c r="F197">
+        <v>1369</v>
+      </c>
+      <c r="G197">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198">
+        <v>4279</v>
+      </c>
+      <c r="C198">
+        <v>778</v>
+      </c>
+      <c r="D198">
+        <v>689</v>
+      </c>
+      <c r="E198">
+        <v>777</v>
+      </c>
+      <c r="F198">
+        <v>1219</v>
+      </c>
+      <c r="G198">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199">
+        <v>4800</v>
+      </c>
+      <c r="C199">
+        <v>934</v>
+      </c>
+      <c r="D199">
+        <v>923</v>
+      </c>
+      <c r="E199">
+        <v>777</v>
+      </c>
+      <c r="F199">
+        <v>1164</v>
+      </c>
+      <c r="G199">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200">
+        <v>5752</v>
+      </c>
+      <c r="C200">
+        <v>945</v>
+      </c>
+      <c r="D200">
+        <v>1128</v>
+      </c>
+      <c r="E200">
+        <v>668</v>
+      </c>
+      <c r="F200">
+        <v>1498</v>
+      </c>
+      <c r="G200">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201">
+        <v>6443</v>
+      </c>
+      <c r="C201">
+        <v>900</v>
+      </c>
+      <c r="D201">
+        <v>983</v>
+      </c>
+      <c r="E201">
+        <v>1294</v>
+      </c>
+      <c r="F201">
+        <v>1866</v>
+      </c>
+      <c r="G201">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202">
+        <v>7327</v>
+      </c>
+      <c r="C202">
+        <v>1412</v>
+      </c>
+      <c r="D202">
+        <v>1619</v>
+      </c>
+      <c r="E202">
+        <v>849</v>
+      </c>
+      <c r="F202">
+        <v>1941</v>
+      </c>
+      <c r="G202">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203">
+        <v>6467</v>
+      </c>
+      <c r="C203">
+        <v>889</v>
+      </c>
+      <c r="D203">
+        <v>1379</v>
+      </c>
+      <c r="E203">
+        <v>1039</v>
+      </c>
+      <c r="F203">
+        <v>1564</v>
+      </c>
+      <c r="G203">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204">
+        <v>4633</v>
+      </c>
+      <c r="C204">
+        <v>363</v>
+      </c>
+      <c r="D204">
+        <v>587</v>
+      </c>
+      <c r="E204">
+        <v>1219</v>
+      </c>
+      <c r="F204">
+        <v>1400</v>
+      </c>
+      <c r="G204">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205">
+        <v>4320</v>
+      </c>
+      <c r="C205">
+        <v>414</v>
+      </c>
+      <c r="D205">
+        <v>558</v>
+      </c>
+      <c r="E205">
+        <v>1078</v>
+      </c>
+      <c r="F205">
+        <v>1268</v>
+      </c>
+      <c r="G205">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206">
+        <v>4688</v>
+      </c>
+      <c r="C206">
+        <v>347</v>
+      </c>
+      <c r="D206">
+        <v>767</v>
+      </c>
+      <c r="E206">
+        <v>1191</v>
+      </c>
+      <c r="F206">
+        <v>1477</v>
+      </c>
+      <c r="G206">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207">
+        <v>6870</v>
+      </c>
+      <c r="C207">
+        <v>751</v>
+      </c>
+      <c r="D207">
+        <v>1034</v>
+      </c>
+      <c r="E207">
+        <v>1826</v>
+      </c>
+      <c r="F207">
+        <v>1783</v>
+      </c>
+      <c r="G207">
+        <v>1476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5777,6 +5780,29 @@
         <v>1476</v>
       </c>
     </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208">
+        <v>4982</v>
+      </c>
+      <c r="C208">
+        <v>379</v>
+      </c>
+      <c r="D208">
+        <v>893</v>
+      </c>
+      <c r="E208">
+        <v>1520</v>
+      </c>
+      <c r="F208">
+        <v>1146</v>
+      </c>
+      <c r="G208">
+        <v>1044</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Serie</t>
   </si>
@@ -656,6 +656,12 @@
   </si>
   <si>
     <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5803,6 +5809,52 @@
         <v>1044</v>
       </c>
     </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209">
+        <v>3973</v>
+      </c>
+      <c r="C209">
+        <v>802</v>
+      </c>
+      <c r="D209">
+        <v>990</v>
+      </c>
+      <c r="E209">
+        <v>667</v>
+      </c>
+      <c r="F209">
+        <v>756</v>
+      </c>
+      <c r="G209">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210">
+        <v>6171</v>
+      </c>
+      <c r="C210">
+        <v>680</v>
+      </c>
+      <c r="D210">
+        <v>882</v>
+      </c>
+      <c r="E210">
+        <v>941</v>
+      </c>
+      <c r="F210">
+        <v>1849</v>
+      </c>
+      <c r="G210">
+        <v>1819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Serie</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5855,6 +5858,29 @@
         <v>1819</v>
       </c>
     </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211">
+        <v>4927</v>
+      </c>
+      <c r="C211">
+        <v>359</v>
+      </c>
+      <c r="D211">
+        <v>574</v>
+      </c>
+      <c r="E211">
+        <v>1090</v>
+      </c>
+      <c r="F211">
+        <v>1464</v>
+      </c>
+      <c r="G211">
+        <v>1440</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Serie</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5881,6 +5884,29 @@
         <v>1440</v>
       </c>
     </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212">
+        <v>5759</v>
+      </c>
+      <c r="C212">
+        <v>627</v>
+      </c>
+      <c r="D212">
+        <v>565</v>
+      </c>
+      <c r="E212">
+        <v>1701</v>
+      </c>
+      <c r="F212">
+        <v>1500</v>
+      </c>
+      <c r="G212">
+        <v>1366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
+++ b/6/1/1/1/Derivados suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Serie</t>
   </si>
@@ -668,6 +668,12 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G212"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5907,6 +5913,52 @@
         <v>1366</v>
       </c>
     </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213">
+        <v>6448</v>
+      </c>
+      <c r="C213">
+        <v>514</v>
+      </c>
+      <c r="D213">
+        <v>794</v>
+      </c>
+      <c r="E213">
+        <v>1928</v>
+      </c>
+      <c r="F213">
+        <v>1854</v>
+      </c>
+      <c r="G213">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214">
+        <v>4902</v>
+      </c>
+      <c r="C214">
+        <v>476</v>
+      </c>
+      <c r="D214">
+        <v>611</v>
+      </c>
+      <c r="E214">
+        <v>1203</v>
+      </c>
+      <c r="F214">
+        <v>1661</v>
+      </c>
+      <c r="G214">
+        <v>952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
